--- a/data_log_sheets/TT24_curve_log.xlsx
+++ b/data_log_sheets/TT24_curve_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data_log_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D7CF4-6C8F-6447-9CE9-6C02355CA5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06FC3D-1C55-3F41-B7B7-CDAF2A75FA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="500" windowWidth="37800" windowHeight="28300" xr2:uid="{A62C6EB1-ACA7-F14B-BE94-73C128140FF4}"/>
+    <workbookView xWindow="3400" yWindow="500" windowWidth="37800" windowHeight="28300" xr2:uid="{A62C6EB1-ACA7-F14B-BE94-73C128140FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>closest to fence</t>
+  </si>
+  <si>
+    <t>striped2</t>
+  </si>
+  <si>
+    <t>right at plot mid-point</t>
+  </si>
+  <si>
+    <t>notebook fell onto individual. Curve present but no carbon budget for ind</t>
+  </si>
+  <si>
+    <t>second striped flag away from fence</t>
+  </si>
+  <si>
+    <t>LI-6800 died before getting to plant. Second log file noted with "_b" suffix</t>
+  </si>
+  <si>
+    <t>flag8</t>
+  </si>
+  <si>
+    <t>curve_fit</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -94,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -129,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,19 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD84A7C-B77D-134C-A552-72D1D4E0C426}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,11 +523,14 @@
       <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45395</v>
       </c>
@@ -518,11 +549,14 @@
       <c r="F2" s="3">
         <v>7.4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45395</v>
       </c>
@@ -541,8 +575,11 @@
       <c r="F3" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45395</v>
       </c>
@@ -561,8 +598,11 @@
       <c r="F4" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45395</v>
       </c>
@@ -581,8 +621,11 @@
       <c r="F5" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45395</v>
       </c>
@@ -601,11 +644,14 @@
       <c r="F6" s="3">
         <v>6.8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45395</v>
       </c>
@@ -624,11 +670,14 @@
       <c r="F7" s="3">
         <v>6.4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45395</v>
       </c>
@@ -647,8 +696,11 @@
       <c r="F8" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45395</v>
       </c>
@@ -667,8 +719,11 @@
       <c r="F9" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45395</v>
       </c>
@@ -687,8 +742,11 @@
       <c r="F10" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45395</v>
       </c>
@@ -707,8 +765,11 @@
       <c r="F11" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45395</v>
       </c>
@@ -727,8 +788,11 @@
       <c r="F12" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45395</v>
       </c>
@@ -747,8 +811,11 @@
       <c r="F13" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45395</v>
       </c>
@@ -767,8 +834,11 @@
       <c r="F14" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45395</v>
       </c>
@@ -787,8 +857,11 @@
       <c r="F15" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45395</v>
       </c>
@@ -807,11 +880,14 @@
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45395</v>
       </c>
@@ -830,8 +906,11 @@
       <c r="F17" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45395</v>
       </c>
@@ -850,8 +929,11 @@
       <c r="F18" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45395</v>
       </c>
@@ -870,8 +952,11 @@
       <c r="F19" s="3">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45396</v>
       </c>
@@ -890,8 +975,11 @@
       <c r="F20" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45396</v>
       </c>
@@ -910,8 +998,11 @@
       <c r="F21" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45396</v>
       </c>
@@ -930,8 +1021,11 @@
       <c r="F22" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45396</v>
       </c>
@@ -950,8 +1044,11 @@
       <c r="F23" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45396</v>
       </c>
@@ -970,11 +1067,14 @@
       <c r="F24" s="3">
         <v>7.5</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45396</v>
       </c>
@@ -993,8 +1093,11 @@
       <c r="F25" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45396</v>
       </c>
@@ -1013,8 +1116,11 @@
       <c r="F26" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45396</v>
       </c>
@@ -1033,8 +1139,11 @@
       <c r="F27" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45396</v>
       </c>
@@ -1053,8 +1162,11 @@
       <c r="F28" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45396</v>
       </c>
@@ -1073,8 +1185,11 @@
       <c r="F29" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45396</v>
       </c>
@@ -1093,8 +1208,11 @@
       <c r="F30" s="3">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45396</v>
       </c>
@@ -1113,8 +1231,11 @@
       <c r="F31" s="3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45396</v>
       </c>
@@ -1133,8 +1254,11 @@
       <c r="F32" s="3">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45396</v>
       </c>
@@ -1153,8 +1277,11 @@
       <c r="F33" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45396</v>
       </c>
@@ -1173,8 +1300,11 @@
       <c r="F34" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45396</v>
       </c>
@@ -1193,8 +1323,11 @@
       <c r="F35" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45396</v>
       </c>
@@ -1213,8 +1346,11 @@
       <c r="F36" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45397</v>
       </c>
@@ -1233,8 +1369,11 @@
       <c r="F37" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45397</v>
       </c>
@@ -1253,8 +1392,11 @@
       <c r="F38" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G38" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45397</v>
       </c>
@@ -1273,8 +1415,11 @@
       <c r="F39" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45397</v>
       </c>
@@ -1293,11 +1438,14 @@
       <c r="F40" s="3">
         <v>6.8</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45397</v>
       </c>
@@ -1316,8 +1464,11 @@
       <c r="F41" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45397</v>
       </c>
@@ -1336,8 +1487,11 @@
       <c r="F42" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45397</v>
       </c>
@@ -1356,8 +1510,11 @@
       <c r="F43" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45397</v>
       </c>
@@ -1376,11 +1533,14 @@
       <c r="F44" s="3">
         <v>10.5</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45397</v>
       </c>
@@ -1399,8 +1559,11 @@
       <c r="F45" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45397</v>
       </c>
@@ -1419,8 +1582,11 @@
       <c r="F46" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45397</v>
       </c>
@@ -1439,8 +1605,11 @@
       <c r="F47" s="3">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45397</v>
       </c>
@@ -1459,11 +1628,14 @@
       <c r="F48" s="3">
         <v>8.1</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45397</v>
       </c>
@@ -1482,8 +1654,11 @@
       <c r="F49" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45397</v>
       </c>
@@ -1502,8 +1677,11 @@
       <c r="F50" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45397</v>
       </c>
@@ -1521,6 +1699,780 @@
       </c>
       <c r="F51" s="3">
         <v>9</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>5060</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>5783</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="F53" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>5031</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F54" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>4543</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F55" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>2276</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>4511</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F57" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>3770</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="F58" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>4582</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>2980</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>3371</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F61" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>3379</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>4505</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F63" s="3">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>4745</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="F64" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>5722</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F65" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>2921</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="F67" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>5642</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F68" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>6879</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F69" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>7120</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>2912</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="F71" s="3">
+        <v>13</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>614</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>1374</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="F73" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>6881</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="F74" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>5381</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="F75" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>4105</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="F76" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>4547</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="F77" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>2388</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F78" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>5904</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F79" s="3">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>7147</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="F80" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="F81" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>83</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F82" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>2563</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data_log_sheets/TT24_curve_log.xlsx
+++ b/data_log_sheets/TT24_curve_log.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data_log_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06FC3D-1C55-3F41-B7B7-CDAF2A75FA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1FB14C-12AF-C843-B2E3-A2801931BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="500" windowWidth="37800" windowHeight="28300" xr2:uid="{A62C6EB1-ACA7-F14B-BE94-73C128140FF4}"/>
+    <workbookView minimized="1" xWindow="13400" yWindow="500" windowWidth="37800" windowHeight="28300" xr2:uid="{A62C6EB1-ACA7-F14B-BE94-73C128140FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>flag3</t>
+  </si>
+  <si>
+    <t>flag1</t>
+  </si>
+  <si>
+    <t>flag2</t>
   </si>
 </sst>
 </file>
@@ -491,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD84A7C-B77D-134C-A552-72D1D4E0C426}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1733,7 @@
         <v>10.3</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1747,7 +1756,7 @@
         <v>10.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -1770,7 +1779,7 @@
         <v>9.4</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -1793,7 +1802,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -1819,7 +1828,7 @@
         <v>6.8</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -1842,7 +1851,7 @@
         <v>11.6</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1865,7 +1874,7 @@
         <v>8.1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
         <v>19</v>
@@ -1891,7 +1900,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1914,7 +1923,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1937,7 +1946,7 @@
         <v>11.2</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -1960,7 +1969,7 @@
         <v>6.2</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -1983,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2006,7 +2015,7 @@
         <v>13.1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2029,7 +2038,7 @@
         <v>13.2</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2052,7 +2061,7 @@
         <v>11.1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2075,7 +2084,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
         <v>20</v>
@@ -2101,7 +2110,7 @@
         <v>9.9</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2124,7 +2133,7 @@
         <v>10.3</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
         <v>21</v>
@@ -2472,6 +2481,236 @@
         <v>8</v>
       </c>
       <c r="G84" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>4265</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F85" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>2573</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F86" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>2547</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F87" s="3">
+        <v>14</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>4177</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="F88" s="3">
+        <v>15</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>1795</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F89" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F90" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F92" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>1739</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F93" s="3">
+        <v>11</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>4149</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F94" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/data_log_sheets/TT24_curve_log.xlsx
+++ b/data_log_sheets/TT24_curve_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data_log_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1FB14C-12AF-C843-B2E3-A2801931BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA6651-42FD-DF4C-BB07-2D6A4838548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13400" yWindow="500" windowWidth="37800" windowHeight="28300" xr2:uid="{A62C6EB1-ACA7-F14B-BE94-73C128140FF4}"/>
+    <workbookView xWindow="4260" yWindow="500" windowWidth="41420" windowHeight="28300" xr2:uid="{A62C6EB1-ACA7-F14B-BE94-73C128140FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -107,9 +107,6 @@
     <t>flag8</t>
   </si>
   <si>
-    <t>curve_fit</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -123,6 +120,90 @@
   </si>
   <si>
     <t>flag2</t>
+  </si>
+  <si>
+    <t>striped1</t>
+  </si>
+  <si>
+    <t>stem_length_cm</t>
+  </si>
+  <si>
+    <t>TNP</t>
+  </si>
+  <si>
+    <t>solomon's seal, not maianthemum</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>tip of leaf is munched</t>
+  </si>
+  <si>
+    <t>some leaf wilt</t>
+  </si>
+  <si>
+    <t>long acclimation time</t>
+  </si>
+  <si>
+    <t>licor died at 1050ppm. Far along enough to not warrant restarting curve</t>
+  </si>
+  <si>
+    <t>start of _b file</t>
+  </si>
+  <si>
+    <t>first two curves are bad, use third curve</t>
+  </si>
+  <si>
+    <t>leaves seem to be senescing</t>
+  </si>
+  <si>
+    <t>TT24_202</t>
+  </si>
+  <si>
+    <t>TT24_201</t>
+  </si>
+  <si>
+    <t>TT24_203</t>
+  </si>
+  <si>
+    <t>TT24_204</t>
+  </si>
+  <si>
+    <t>TT24_101</t>
+  </si>
+  <si>
+    <t>TT24_103</t>
+  </si>
+  <si>
+    <t>TT24_102</t>
+  </si>
+  <si>
+    <t>curve_fit_done</t>
+  </si>
+  <si>
+    <t>TT24_104</t>
+  </si>
+  <si>
+    <t>TT24_105</t>
+  </si>
+  <si>
+    <t>TT25_106</t>
+  </si>
+  <si>
+    <t>279 in log file</t>
+  </si>
+  <si>
+    <t>TT24_205</t>
+  </si>
+  <si>
+    <t>TT24_206</t>
+  </si>
+  <si>
+    <t>3438 in log file</t>
+  </si>
+  <si>
+    <t>4216 in log file</t>
   </si>
 </sst>
 </file>
@@ -500,20 +581,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD84A7C-B77D-134C-A552-72D1D4E0C426}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F140" sqref="F140:G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="59.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,13 +615,16 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45395</v>
       </c>
@@ -559,13 +644,16 @@
         <v>7.4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45395</v>
       </c>
@@ -585,10 +673,13 @@
         <v>6.8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45395</v>
       </c>
@@ -608,10 +699,13 @@
         <v>6.9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45395</v>
       </c>
@@ -631,10 +725,13 @@
         <v>7.9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45395</v>
       </c>
@@ -654,13 +751,16 @@
         <v>6.8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45395</v>
       </c>
@@ -680,13 +780,16 @@
         <v>6.4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45395</v>
       </c>
@@ -706,10 +809,13 @@
         <v>6.9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45395</v>
       </c>
@@ -729,10 +835,13 @@
         <v>9.5</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45395</v>
       </c>
@@ -752,10 +861,13 @@
         <v>6.1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45395</v>
       </c>
@@ -775,10 +887,13 @@
         <v>7.5</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45395</v>
       </c>
@@ -798,10 +913,13 @@
         <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45395</v>
       </c>
@@ -821,10 +939,13 @@
         <v>7.4</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45395</v>
       </c>
@@ -844,10 +965,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45395</v>
       </c>
@@ -867,10 +991,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45395</v>
       </c>
@@ -890,13 +1017,16 @@
         <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45395</v>
       </c>
@@ -916,10 +1046,13 @@
         <v>6.8</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45395</v>
       </c>
@@ -939,10 +1072,13 @@
         <v>6.7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45395</v>
       </c>
@@ -962,10 +1098,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45396</v>
       </c>
@@ -985,10 +1124,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45396</v>
       </c>
@@ -1008,10 +1150,13 @@
         <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45396</v>
       </c>
@@ -1031,10 +1176,13 @@
         <v>9.5</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45396</v>
       </c>
@@ -1054,10 +1202,13 @@
         <v>7.2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45396</v>
       </c>
@@ -1077,13 +1228,16 @@
         <v>7.5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45396</v>
       </c>
@@ -1103,10 +1257,13 @@
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45396</v>
       </c>
@@ -1126,10 +1283,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45396</v>
       </c>
@@ -1149,10 +1309,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45396</v>
       </c>
@@ -1172,10 +1335,13 @@
         <v>8.4</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45396</v>
       </c>
@@ -1195,10 +1361,13 @@
         <v>9.5</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45396</v>
       </c>
@@ -1218,10 +1387,13 @@
         <v>11.2</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45396</v>
       </c>
@@ -1241,10 +1413,13 @@
         <v>9.6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45396</v>
       </c>
@@ -1264,10 +1439,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45396</v>
       </c>
@@ -1287,10 +1465,13 @@
         <v>8.5</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45396</v>
       </c>
@@ -1310,10 +1491,13 @@
         <v>8.1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45396</v>
       </c>
@@ -1333,10 +1517,13 @@
         <v>9.9</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45396</v>
       </c>
@@ -1356,10 +1543,13 @@
         <v>8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45397</v>
       </c>
@@ -1379,10 +1569,13 @@
         <v>10.1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45397</v>
       </c>
@@ -1402,10 +1595,13 @@
         <v>7.6</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45397</v>
       </c>
@@ -1425,10 +1621,13 @@
         <v>8.5</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45397</v>
       </c>
@@ -1448,13 +1647,16 @@
         <v>6.8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45397</v>
       </c>
@@ -1474,10 +1676,13 @@
         <v>6.9</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45397</v>
       </c>
@@ -1497,10 +1702,13 @@
         <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45397</v>
       </c>
@@ -1520,10 +1728,13 @@
         <v>8.1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45397</v>
       </c>
@@ -1543,13 +1754,16 @@
         <v>10.5</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45397</v>
       </c>
@@ -1569,10 +1783,13 @@
         <v>9.5</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45397</v>
       </c>
@@ -1592,10 +1809,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45397</v>
       </c>
@@ -1615,10 +1835,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45397</v>
       </c>
@@ -1638,13 +1861,16 @@
         <v>8.1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45397</v>
       </c>
@@ -1664,10 +1890,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45397</v>
       </c>
@@ -1687,10 +1916,13 @@
         <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45397</v>
       </c>
@@ -1710,10 +1942,13 @@
         <v>9</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45402</v>
       </c>
@@ -1733,10 +1968,13 @@
         <v>10.3</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45402</v>
       </c>
@@ -1756,10 +1994,13 @@
         <v>10.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45402</v>
       </c>
@@ -1779,10 +2020,13 @@
         <v>9.4</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45402</v>
       </c>
@@ -1802,13 +2046,16 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45402</v>
       </c>
@@ -1828,10 +2075,13 @@
         <v>6.8</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45402</v>
       </c>
@@ -1851,10 +2101,13 @@
         <v>11.6</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45402</v>
       </c>
@@ -1874,13 +2127,16 @@
         <v>8.1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45402</v>
       </c>
@@ -1900,10 +2156,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45402</v>
       </c>
@@ -1923,10 +2182,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45402</v>
       </c>
@@ -1946,10 +2208,13 @@
         <v>11.2</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45402</v>
       </c>
@@ -1969,10 +2234,13 @@
         <v>6.2</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45402</v>
       </c>
@@ -1992,10 +2260,13 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45402</v>
       </c>
@@ -2015,10 +2286,13 @@
         <v>13.1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45402</v>
       </c>
@@ -2038,10 +2312,13 @@
         <v>13.2</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45402</v>
       </c>
@@ -2061,10 +2338,13 @@
         <v>11.1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45402</v>
       </c>
@@ -2084,13 +2364,16 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45402</v>
       </c>
@@ -2110,10 +2393,13 @@
         <v>9.9</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45402</v>
       </c>
@@ -2133,13 +2419,16 @@
         <v>10.3</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45404</v>
       </c>
@@ -2159,10 +2448,13 @@
         <v>10.1</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45404</v>
       </c>
@@ -2182,10 +2474,13 @@
         <v>13</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45404</v>
       </c>
@@ -2205,10 +2500,13 @@
         <v>8</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45404</v>
       </c>
@@ -2228,10 +2526,13 @@
         <v>11.9</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45404</v>
       </c>
@@ -2251,10 +2552,13 @@
         <v>11.8</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45404</v>
       </c>
@@ -2274,10 +2578,13 @@
         <v>12.7</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45404</v>
       </c>
@@ -2297,10 +2604,13 @@
         <v>11.6</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45404</v>
       </c>
@@ -2320,10 +2630,13 @@
         <v>12.1</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45404</v>
       </c>
@@ -2343,10 +2656,13 @@
         <v>14.3</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45404</v>
       </c>
@@ -2366,10 +2682,13 @@
         <v>11</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45404</v>
       </c>
@@ -2389,10 +2708,13 @@
         <v>12.8</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45404</v>
       </c>
@@ -2412,10 +2734,13 @@
         <v>12.7</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45404</v>
       </c>
@@ -2435,10 +2760,13 @@
         <v>11.2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45404</v>
       </c>
@@ -2458,10 +2786,13 @@
         <v>11.9</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45404</v>
       </c>
@@ -2481,10 +2812,13 @@
         <v>8</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45405</v>
       </c>
@@ -2504,10 +2838,13 @@
         <v>14.8</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45405</v>
       </c>
@@ -2527,10 +2864,13 @@
         <v>14.1</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45405</v>
       </c>
@@ -2550,10 +2890,13 @@
         <v>14</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45405</v>
       </c>
@@ -2573,10 +2916,13 @@
         <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45405</v>
       </c>
@@ -2596,10 +2942,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45405</v>
       </c>
@@ -2607,7 +2956,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -2619,10 +2968,13 @@
         <v>12.6</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45405</v>
       </c>
@@ -2630,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
@@ -2642,10 +2994,13 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>45405</v>
       </c>
@@ -2653,7 +3008,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
@@ -2665,10 +3020,13 @@
         <v>13.3</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45405</v>
       </c>
@@ -2688,10 +3046,13 @@
         <v>11</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45405</v>
       </c>
@@ -2711,7 +3072,3841 @@
         <v>13.8</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>2329</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="F95" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>6885</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="F96" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>774</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="F97" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>5479</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="F98" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>4942</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="F99" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>1666</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.49375000000000002</v>
+      </c>
+      <c r="F100" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>6869</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>6558</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="F102" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>392</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F103" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>2337</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="F104" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="G104" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>583</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="F105" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>4934</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F106" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>1157</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="F107" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="G107" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>179</v>
+      </c>
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="F108" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="G108" s="3">
+        <v>57.9</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>4712</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="F109" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>902</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="F110" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>5105</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="F111" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="G111" s="3">
+        <v>38.1</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>5184</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="F112" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G112" s="3">
+        <v>42</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>141</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F113" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="G113" s="3">
+        <v>43.4</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>552</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="F114" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>4250</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="F115" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="G115" s="3">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>5488</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="F116" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>9412</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F117" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G117" s="3">
+        <v>46.4</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>5436</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F118" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>5495</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="F119" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>3563</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F120" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>2310</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F121" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G121" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>1926</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="F122" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>5500</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="F123" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>1686</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F124" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>5797</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.60902777777777772</v>
+      </c>
+      <c r="F125" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>425</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F126" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>4431</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="F127" s="3">
+        <v>17</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>1476</v>
+      </c>
+      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>5657</v>
+      </c>
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>4781</v>
+      </c>
+      <c r="D130" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>4414</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="F131" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>4959</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="F132" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>4990</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F133" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>482</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F134" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>3004</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="F135" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>5229</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="F136" s="3">
+        <v>14</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>2508</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="F137" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>4576</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="F138" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>3077</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="F139" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>5052</v>
+      </c>
+      <c r="D140" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>2637</v>
+      </c>
+      <c r="D141" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>2662</v>
+      </c>
+      <c r="D142" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>2616</v>
+      </c>
+      <c r="D143" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="2">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>6888</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="F144" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>6875</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="F145" s="3">
+        <v>14</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>4444</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F146" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>2988</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="F147" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>3829</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="F148" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>5877</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="2">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="F149" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>4109</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="2">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="F150" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>2573</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="2">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="F151" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>4265</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="F152" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>2547</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F153" s="3">
+        <v>16</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>5228</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="F154" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>5115</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="F155" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>1730</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="F156" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>3136</v>
+      </c>
+      <c r="D157" t="s">
+        <v>32</v>
+      </c>
+      <c r="E157" s="2">
+        <v>0.41597222222222224</v>
+      </c>
+      <c r="F157" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="G157" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>5178</v>
+      </c>
+      <c r="D158" t="s">
+        <v>32</v>
+      </c>
+      <c r="E158" s="2">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="F158" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="G158" s="3">
+        <v>61.3</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>5600</v>
+      </c>
+      <c r="D159" t="s">
+        <v>32</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="F159" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="G159" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B160">
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>2608</v>
+      </c>
+      <c r="D160" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="F160" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="G160" s="3">
+        <v>48.1</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>6495</v>
+      </c>
+      <c r="D161" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" s="2">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="F161" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G161" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I161" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>6462</v>
+      </c>
+      <c r="D162" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="2">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>6448</v>
+      </c>
+      <c r="D163" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B164">
+        <v>6</v>
+      </c>
+      <c r="C164">
+        <v>5229</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="F164" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>4766</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F165" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>762</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="F166" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>4373</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="F167" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>4777</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F168" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B169">
+        <v>6</v>
+      </c>
+      <c r="C169">
+        <v>5865</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="F169" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>5267</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="2">
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="F170" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>684</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="F171" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>5742</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="2">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F172" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>5641</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="2">
+        <v>0.52013888888888893</v>
+      </c>
+      <c r="F173" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B174">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>3305</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="2">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F174" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>5619</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="2">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="F175" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="2">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="F176" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="F177" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B178">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>978</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F178" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>5626</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F179" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>5403</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="2">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="F180" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B181">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>6879</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F181" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B182">
+        <v>6</v>
+      </c>
+      <c r="C182">
+        <v>5579</v>
+      </c>
+      <c r="D182" t="s">
+        <v>32</v>
+      </c>
+      <c r="E182" s="2">
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
+      <c r="C183">
+        <v>5024</v>
+      </c>
+      <c r="D183" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F183" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="G183" s="3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B184">
+        <v>6</v>
+      </c>
+      <c r="C184">
+        <v>5060</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F184" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>6483</v>
+      </c>
+      <c r="D185" t="s">
+        <v>32</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>5783</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="2">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="F186" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B187">
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <v>5506</v>
+      </c>
+      <c r="D187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>1941</v>
+      </c>
+      <c r="D188" t="s">
+        <v>32</v>
+      </c>
+      <c r="E188" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B189">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>2276</v>
+      </c>
+      <c r="D189" t="s">
+        <v>32</v>
+      </c>
+      <c r="E189" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B190">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>5504</v>
+      </c>
+      <c r="D190" t="s">
+        <v>32</v>
+      </c>
+      <c r="E190" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B191">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>2743</v>
+      </c>
+      <c r="D191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E191" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B192">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>1467</v>
+      </c>
+      <c r="D192" t="s">
+        <v>32</v>
+      </c>
+      <c r="E192" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B193">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>2276</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F193" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B194">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>5031</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="F194" s="3">
+        <v>11</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>571</v>
+      </c>
+      <c r="D195" t="s">
+        <v>32</v>
+      </c>
+      <c r="E195" s="2">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="F195" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>1021</v>
+      </c>
+      <c r="D196" t="s">
+        <v>32</v>
+      </c>
+      <c r="E196" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="F196" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="G196" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>543</v>
+      </c>
+      <c r="D197" t="s">
+        <v>32</v>
+      </c>
+      <c r="E197" s="2">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="F197" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="G197" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" t="s">
+        <v>32</v>
+      </c>
+      <c r="E198" s="2">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F198" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>2268</v>
+      </c>
+      <c r="D199" t="s">
+        <v>32</v>
+      </c>
+      <c r="E199" s="2">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="F199" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="G199" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>5069</v>
+      </c>
+      <c r="D200" t="s">
+        <v>32</v>
+      </c>
+      <c r="E200" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F200" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="G200" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>5030</v>
+      </c>
+      <c r="D201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="F201" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="G201" s="3">
+        <v>54.4</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>6879</v>
+      </c>
+      <c r="D202" t="s">
+        <v>32</v>
+      </c>
+      <c r="E202" s="2">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="F202" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="G202" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>129</v>
+      </c>
+      <c r="D203" t="s">
+        <v>32</v>
+      </c>
+      <c r="E203" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F203" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G203" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>3643</v>
+      </c>
+      <c r="D204" t="s">
+        <v>32</v>
+      </c>
+      <c r="E204" s="2">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="F204" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="G204" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>2416</v>
+      </c>
+      <c r="D205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F205" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" t="s">
+        <v>32</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="F206" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>42</v>
+      </c>
+      <c r="D207" t="s">
+        <v>32</v>
+      </c>
+      <c r="E207" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F207" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" t="s">
+        <v>32</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="F208" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="G208" s="3">
+        <v>38.1</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>45</v>
+      </c>
+      <c r="D209" t="s">
+        <v>32</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="F209" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="G209" s="3">
+        <v>59</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>44</v>
+      </c>
+      <c r="D210" t="s">
+        <v>32</v>
+      </c>
+      <c r="E210" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F210" s="3">
+        <v>13</v>
+      </c>
+      <c r="G210" s="3">
+        <v>31.8</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>46</v>
+      </c>
+      <c r="D211" t="s">
+        <v>32</v>
+      </c>
+      <c r="E211" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F211" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="G211" s="3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>452</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F212" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>54</v>
+      </c>
+      <c r="D213" t="s">
+        <v>32</v>
+      </c>
+      <c r="E213" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F213" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="G213" s="3">
+        <v>30.6</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>916</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214" s="2">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="F214" s="3">
+        <v>16</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B215">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" t="s">
+        <v>32</v>
+      </c>
+      <c r="E215" s="2">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="F215" s="3">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G215" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B216">
+        <v>6</v>
+      </c>
+      <c r="C216" t="s">
+        <v>49</v>
+      </c>
+      <c r="D216" t="s">
+        <v>32</v>
+      </c>
+      <c r="E216" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="F216" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="G216" s="3">
+        <v>55.4</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B217">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>50</v>
+      </c>
+      <c r="D217" t="s">
+        <v>32</v>
+      </c>
+      <c r="E217" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="F217" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G217" s="3">
+        <v>21.3</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B218">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>2801</v>
+      </c>
+      <c r="D218" t="s">
+        <v>32</v>
+      </c>
+      <c r="E218" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F218" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="G218" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B219">
+        <v>6</v>
+      </c>
+      <c r="C219">
+        <v>2692</v>
+      </c>
+      <c r="D219" t="s">
+        <v>32</v>
+      </c>
+      <c r="E219" s="2">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="F219" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="G219" s="3">
+        <v>58.2</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B220">
+        <v>6</v>
+      </c>
+      <c r="C220">
+        <v>2639</v>
+      </c>
+      <c r="D220" t="s">
+        <v>32</v>
+      </c>
+      <c r="E220" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="F220" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="G220" s="3">
+        <v>33.4</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B221">
+        <v>6</v>
+      </c>
+      <c r="C221">
+        <v>2799</v>
+      </c>
+      <c r="D221" t="s">
+        <v>32</v>
+      </c>
+      <c r="E221" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F221" s="3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G221" s="3">
+        <v>58</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I221" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <v>5714</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="F222" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B223">
+        <v>6</v>
+      </c>
+      <c r="C223">
+        <v>5596</v>
+      </c>
+      <c r="D223" t="s">
+        <v>32</v>
+      </c>
+      <c r="E223" s="2">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="F223" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="G223" s="3">
+        <v>68</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B224">
+        <v>6</v>
+      </c>
+      <c r="C224">
+        <v>5852</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F224" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B225">
+        <v>6</v>
+      </c>
+      <c r="C225">
+        <v>5607</v>
+      </c>
+      <c r="D225" t="s">
+        <v>32</v>
+      </c>
+      <c r="E225" s="2">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="F225" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B226">
+        <v>6</v>
+      </c>
+      <c r="C226">
+        <v>5664</v>
+      </c>
+      <c r="D226" t="s">
+        <v>32</v>
+      </c>
+      <c r="E226" s="2">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="F226" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G226" s="3">
+        <v>49</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>5122</v>
+      </c>
+      <c r="D227" t="s">
+        <v>32</v>
+      </c>
+      <c r="E227" s="2">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="F227" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="G227" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B228">
+        <v>6</v>
+      </c>
+      <c r="C228">
+        <v>2770</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" s="2">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="F228" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B229">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>52</v>
+      </c>
+      <c r="D229" t="s">
+        <v>32</v>
+      </c>
+      <c r="E229" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F229" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="G229" s="3">
+        <v>49.5</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B230">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>53</v>
+      </c>
+      <c r="D230" t="s">
+        <v>32</v>
+      </c>
+      <c r="E230" s="2">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="F230" s="3">
+        <v>13</v>
+      </c>
+      <c r="G230" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B231">
+        <v>6</v>
+      </c>
+      <c r="C231">
+        <v>3175</v>
+      </c>
+      <c r="D231" t="s">
+        <v>32</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="F231" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="G231" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B232">
+        <v>6</v>
+      </c>
+      <c r="C232">
+        <v>5567</v>
+      </c>
+      <c r="D232" t="s">
+        <v>32</v>
+      </c>
+      <c r="E232" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="F232" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="G232" s="3">
+        <v>53.8</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>6463</v>
+      </c>
+      <c r="D233" t="s">
+        <v>32</v>
+      </c>
+      <c r="E233" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F233" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="G233" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B234">
+        <v>6</v>
+      </c>
+      <c r="C234">
+        <v>4511</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" s="2">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="F234" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B235">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <v>4216</v>
+      </c>
+      <c r="D235" t="s">
+        <v>32</v>
+      </c>
+      <c r="E235" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F235" s="3">
+        <v>17</v>
+      </c>
+      <c r="G235" s="3">
+        <v>53.2</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I235" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236">
+        <v>3438</v>
+      </c>
+      <c r="D236" t="s">
+        <v>32</v>
+      </c>
+      <c r="E236" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F236" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="G236" s="3">
+        <v>61.1</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I236" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <v>5025</v>
+      </c>
+      <c r="D237" t="s">
+        <v>32</v>
+      </c>
+      <c r="E237" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F237" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="G237" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B238">
+        <v>6</v>
+      </c>
+      <c r="C238">
+        <v>5569</v>
+      </c>
+      <c r="D238" t="s">
+        <v>32</v>
+      </c>
+      <c r="E238" s="2">
+        <v>0.54652777777777772</v>
+      </c>
+      <c r="F238" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="G238" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B239">
+        <v>6</v>
+      </c>
+      <c r="C239">
+        <v>4582</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="F239" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240">
+        <v>2980</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F240" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B241">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>3371</v>
+      </c>
+      <c r="D241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" s="2">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="F241" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242">
+        <v>3379</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="F242" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B243">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>4505</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" s="2">
+        <v>0.60763888888888884</v>
+      </c>
+      <c r="F243" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B244">
+        <v>6</v>
+      </c>
+      <c r="C244">
+        <v>4745</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="F244" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data_log_sheets/TT24_curve_log.xlsx
+++ b/data_log_sheets/TT24_curve_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data_log_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA6651-42FD-DF4C-BB07-2D6A4838548A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01665EBA-1CE7-8D4D-8B16-32CF298A8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="500" windowWidth="41420" windowHeight="28300" xr2:uid="{A62C6EB1-ACA7-F14B-BE94-73C128140FF4}"/>
+    <workbookView xWindow="9040" yWindow="500" windowWidth="42680" windowHeight="28300" xr2:uid="{A62C6EB1-ACA7-F14B-BE94-73C128140FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="62">
   <si>
     <t>date</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>4216 in log file</t>
+  </si>
+  <si>
+    <t>not including in analyses because it is in middle of garlic mustard path and on weeded side of plot. Inaccessible</t>
+  </si>
+  <si>
+    <t>browning leaves, not looking in great health</t>
+  </si>
+  <si>
+    <t>TT24_112</t>
+  </si>
+  <si>
+    <t>TT24_212</t>
+  </si>
+  <si>
+    <t>TT24_210</t>
+  </si>
+  <si>
+    <t>senesced</t>
   </si>
 </sst>
 </file>
@@ -581,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD84A7C-B77D-134C-A552-72D1D4E0C426}">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="286" zoomScaleNormal="286" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F140" sqref="F140:G143"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2451,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -2477,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2503,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2529,7 +2547,7 @@
         <v>8</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2555,7 +2573,7 @@
         <v>8</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2581,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -2607,7 +2625,7 @@
         <v>8</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2633,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -2659,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -2685,7 +2703,7 @@
         <v>8</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -2711,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2737,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2763,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2789,7 +2807,7 @@
         <v>8</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -2815,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -2841,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2867,7 +2885,7 @@
         <v>8</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -2893,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -2919,7 +2937,7 @@
         <v>8</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -2945,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2971,7 +2989,7 @@
         <v>8</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -2997,7 +3015,7 @@
         <v>8</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -3023,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4264,6 +4282,12 @@
       <c r="E140" s="2">
         <v>0.42152777777777778</v>
       </c>
+      <c r="F140" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G140" s="3">
+        <v>54.9</v>
+      </c>
       <c r="H140" s="3" t="s">
         <v>24</v>
       </c>
@@ -4284,6 +4308,12 @@
       <c r="E141" s="2">
         <v>0.43125000000000002</v>
       </c>
+      <c r="F141" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="G141" s="3">
+        <v>40.799999999999997</v>
+      </c>
       <c r="H141" s="3" t="s">
         <v>24</v>
       </c>
@@ -4304,6 +4334,12 @@
       <c r="E142" s="2">
         <v>0.44236111111111109</v>
       </c>
+      <c r="F142" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="G142" s="3">
+        <v>49.4</v>
+      </c>
       <c r="H142" s="3" t="s">
         <v>24</v>
       </c>
@@ -4324,6 +4360,12 @@
       <c r="E143" s="2">
         <v>0.45277777777777778</v>
       </c>
+      <c r="F143" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>74</v>
+      </c>
       <c r="H143" s="3" t="s">
         <v>24</v>
       </c>
@@ -4815,6 +4857,12 @@
       <c r="E162" s="2">
         <v>0.59791666666666665</v>
       </c>
+      <c r="F162" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="G162" s="3">
+        <v>41.5</v>
+      </c>
       <c r="H162" s="3" t="s">
         <v>24</v>
       </c>
@@ -4835,6 +4883,12 @@
       <c r="E163" s="2">
         <v>0.625</v>
       </c>
+      <c r="F163" s="3">
+        <v>17</v>
+      </c>
+      <c r="G163" s="3">
+        <v>80.099999999999994</v>
+      </c>
       <c r="H163" s="3" t="s">
         <v>24</v>
       </c>
@@ -5326,6 +5380,12 @@
       <c r="E182" s="2">
         <v>0.41458333333333336</v>
       </c>
+      <c r="F182" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="G182" s="3">
+        <v>67.2</v>
+      </c>
       <c r="H182" s="3" t="s">
         <v>24</v>
       </c>
@@ -5398,6 +5458,12 @@
       <c r="E185" s="2">
         <v>0.43194444444444446</v>
       </c>
+      <c r="F185" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="G185" s="3">
+        <v>54.3</v>
+      </c>
       <c r="H185" s="3" t="s">
         <v>24</v>
       </c>
@@ -5444,6 +5510,12 @@
       <c r="E187" s="2">
         <v>0.50763888888888886</v>
       </c>
+      <c r="F187" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="G187" s="3">
+        <v>13.8</v>
+      </c>
       <c r="H187" s="3" t="s">
         <v>24</v>
       </c>
@@ -5464,6 +5536,12 @@
       <c r="E188" s="2">
         <v>0.44305555555555554</v>
       </c>
+      <c r="F188" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="G188" s="3">
+        <v>50.6</v>
+      </c>
       <c r="H188" s="3" t="s">
         <v>24</v>
       </c>
@@ -6906,6 +6984,1286 @@
         <v>8</v>
       </c>
       <c r="H244" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B245">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <v>7120</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F245" s="3">
+        <v>14</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B246">
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <v>2803</v>
+      </c>
+      <c r="D246" t="s">
+        <v>32</v>
+      </c>
+      <c r="E246" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="F246" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G246" s="3">
+        <v>51.9</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B247">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <v>1499</v>
+      </c>
+      <c r="D247" t="s">
+        <v>32</v>
+      </c>
+      <c r="E247" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="F247" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="G247" s="3">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>1432</v>
+      </c>
+      <c r="D248" t="s">
+        <v>32</v>
+      </c>
+      <c r="E248" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F248" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G248" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B249">
+        <v>5</v>
+      </c>
+      <c r="C249">
+        <v>2912</v>
+      </c>
+      <c r="D249" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F249" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B250">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>614</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="F250" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <v>6881</v>
+      </c>
+      <c r="D251" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="F251" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B252">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <v>1374</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" s="2">
+        <v>0.51527777777777772</v>
+      </c>
+      <c r="F252" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B253">
+        <v>5</v>
+      </c>
+      <c r="C253">
+        <v>1826</v>
+      </c>
+      <c r="D253" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" s="2">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="F253" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B254">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <v>4105</v>
+      </c>
+      <c r="D254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="2">
+        <v>0.54236111111111107</v>
+      </c>
+      <c r="F254" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B255">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>5381</v>
+      </c>
+      <c r="D255" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="F255" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>4574</v>
+      </c>
+      <c r="D256" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="F256" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B257">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257" s="2">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="F257" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>2563</v>
+      </c>
+      <c r="D258" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F258" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B259">
+        <v>5</v>
+      </c>
+      <c r="C259">
+        <v>4177</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259" s="2">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="F259" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B260">
+        <v>5</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B261">
+        <v>5</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="F261" s="3">
+        <v>12</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B262">
+        <v>5</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F262" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>4149</v>
+      </c>
+      <c r="D263" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" s="2">
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F263" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>1795</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="2">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="F264" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B265">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>6887</v>
+      </c>
+      <c r="D265" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F265" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B266">
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>32</v>
+      </c>
+      <c r="E266" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F266" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G266" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B267">
+        <v>5</v>
+      </c>
+      <c r="C267">
+        <v>631</v>
+      </c>
+      <c r="D267" t="s">
+        <v>32</v>
+      </c>
+      <c r="E267" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F267" s="3">
+        <v>17</v>
+      </c>
+      <c r="G267" s="3">
+        <v>59</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B268">
+        <v>5</v>
+      </c>
+      <c r="C268">
+        <v>3960</v>
+      </c>
+      <c r="D268" t="s">
+        <v>32</v>
+      </c>
+      <c r="E268" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="F268" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G268" s="3">
+        <v>52</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B269">
+        <v>5</v>
+      </c>
+      <c r="C269">
+        <v>3993</v>
+      </c>
+      <c r="D269" t="s">
+        <v>32</v>
+      </c>
+      <c r="E269" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F269" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="G269" s="3">
+        <v>45.1</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B270">
+        <v>5</v>
+      </c>
+      <c r="C270">
+        <v>86</v>
+      </c>
+      <c r="D270" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" s="2">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="F270" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B271">
+        <v>5</v>
+      </c>
+      <c r="C271">
+        <v>7147</v>
+      </c>
+      <c r="D271" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" s="2">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="F271" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B272">
+        <v>5</v>
+      </c>
+      <c r="C272">
+        <v>43</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="F272" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+      <c r="C273">
+        <v>5904</v>
+      </c>
+      <c r="D273" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I273" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>4250</v>
+      </c>
+      <c r="D274" t="s">
+        <v>32</v>
+      </c>
+      <c r="E274" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F274" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="G274" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>58</v>
+      </c>
+      <c r="D275" t="s">
+        <v>32</v>
+      </c>
+      <c r="E275" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="F275" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="G275" s="3">
+        <v>54</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>5436</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F276" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>9412</v>
+      </c>
+      <c r="D277" t="s">
+        <v>32</v>
+      </c>
+      <c r="E277" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="F277" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="G277" s="3">
+        <v>45.9</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>5495</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F278" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>3563</v>
+      </c>
+      <c r="D279" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279" s="2">
+        <v>0.49930555555555556</v>
+      </c>
+      <c r="F279" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>59</v>
+      </c>
+      <c r="D280" t="s">
+        <v>32</v>
+      </c>
+      <c r="E280" s="2">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="F280" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G280" s="3">
+        <v>52.7</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>2310</v>
+      </c>
+      <c r="D281" t="s">
+        <v>32</v>
+      </c>
+      <c r="E281" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F281" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="G281" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>60</v>
+      </c>
+      <c r="D282" t="s">
+        <v>32</v>
+      </c>
+      <c r="E282" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F282" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="G282" s="3">
+        <v>51.8</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>1686</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F283" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>5797</v>
+      </c>
+      <c r="D284" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F284" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>4714</v>
+      </c>
+      <c r="D285" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F285" s="3">
+        <v>11</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>902</v>
+      </c>
+      <c r="D286" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>5105</v>
+      </c>
+      <c r="D287" t="s">
+        <v>32</v>
+      </c>
+      <c r="E287" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F287" s="3">
+        <v>14</v>
+      </c>
+      <c r="G287" s="3">
+        <v>34</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>2329</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F288" s="3">
+        <v>13</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>6885</v>
+      </c>
+      <c r="D289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="F289" s="3">
+        <v>12</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>774</v>
+      </c>
+      <c r="D290" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" s="2">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="F290" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>5184</v>
+      </c>
+      <c r="D291" t="s">
+        <v>32</v>
+      </c>
+      <c r="E291" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F291" s="3">
+        <v>16</v>
+      </c>
+      <c r="G291" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>141</v>
+      </c>
+      <c r="D292" t="s">
+        <v>32</v>
+      </c>
+      <c r="E292" s="2">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="F292" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="G292" s="3">
+        <v>41</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>552</v>
+      </c>
+      <c r="D293" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293" s="2">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="F293" s="3">
+        <v>13</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H293" s="3" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_log_sheets/TT24_curve_log.xlsx
+++ b/data_log_sheets/TT24_curve_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data_log_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34FD71-A771-B34F-81A0-D6BDCCA46696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BE7D87-3D5A-FA4F-B1B1-17C94F64F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{D520579F-2F6B-D846-98D0-14D12C1E8BAA}"/>
   </bookViews>
@@ -772,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -793,15 +793,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2542542-07FB-D144-949C-9817BEAE737F}">
   <dimension ref="A1:K936"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="I388" sqref="I388"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="I479" sqref="I479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12601,26 +12592,26 @@
       <c r="C355" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D355" s="8">
+      <c r="D355" s="4">
         <v>4109</v>
       </c>
-      <c r="E355" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F355" s="9">
+      <c r="E355" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" s="5">
         <v>0.56944444444444442</v>
       </c>
-      <c r="G355" s="10">
+      <c r="G355" s="6">
         <v>12.7</v>
       </c>
-      <c r="H355" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I355" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J355" s="8"/>
-      <c r="K355" s="10"/>
+      <c r="H355" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I355" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J355" s="4"/>
+      <c r="K355" s="6"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
@@ -13652,7 +13643,7 @@
         <v>54.2</v>
       </c>
       <c r="I388" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J388" s="4"/>
       <c r="K388" s="6"/>
@@ -13683,7 +13674,7 @@
         <v>41.8</v>
       </c>
       <c r="I389" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J389" s="4"/>
       <c r="K389" s="6"/>
@@ -13714,7 +13705,7 @@
         <v>57.2</v>
       </c>
       <c r="I390" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J390" s="4"/>
       <c r="K390" s="6"/>
@@ -13745,7 +13736,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="I391" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J391" s="4"/>
       <c r="K391" s="6"/>
@@ -13776,7 +13767,7 @@
         <v>32.5</v>
       </c>
       <c r="I392" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J392" s="4"/>
       <c r="K392" s="6"/>
@@ -13807,7 +13798,7 @@
         <v>57.9</v>
       </c>
       <c r="I393" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J393" s="4"/>
       <c r="K393" s="6"/>
@@ -13838,7 +13829,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I394" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J394" s="4"/>
       <c r="K394" s="6"/>
@@ -13869,7 +13860,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="I395" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J395" s="4"/>
       <c r="K395" s="6"/>
@@ -13900,7 +13891,7 @@
         <v>10</v>
       </c>
       <c r="I396" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J396" s="4" t="s">
         <v>212</v>
@@ -13933,7 +13924,7 @@
         <v>56.9</v>
       </c>
       <c r="I397" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J397" s="4"/>
       <c r="K397" s="6"/>
@@ -13964,7 +13955,7 @@
         <v>10</v>
       </c>
       <c r="I398" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J398" s="4"/>
       <c r="K398" s="6"/>
@@ -13995,7 +13986,7 @@
         <v>10</v>
       </c>
       <c r="I399" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J399" s="4"/>
       <c r="K399" s="6"/>
@@ -14026,7 +14017,7 @@
         <v>10</v>
       </c>
       <c r="I400" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J400" s="4"/>
       <c r="K400" s="6"/>
@@ -14057,7 +14048,7 @@
         <v>10</v>
       </c>
       <c r="I401" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J401" s="4" t="s">
         <v>203</v>
@@ -14090,7 +14081,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="I402" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J402" s="4"/>
       <c r="K402" s="6"/>
@@ -14121,7 +14112,7 @@
         <v>49.5</v>
       </c>
       <c r="I403" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J403" s="4"/>
       <c r="K403" s="6"/>
@@ -14152,7 +14143,7 @@
         <v>10</v>
       </c>
       <c r="I404" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J404" s="4"/>
       <c r="K404" s="6"/>
@@ -14183,7 +14174,7 @@
         <v>62.2</v>
       </c>
       <c r="I405" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J405" s="4"/>
       <c r="K405" s="6"/>
@@ -14214,7 +14205,7 @@
         <v>46</v>
       </c>
       <c r="I406" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J406" s="4"/>
       <c r="K406" s="6"/>
@@ -14245,7 +14236,7 @@
         <v>61.5</v>
       </c>
       <c r="I407" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J407" s="4"/>
       <c r="K407" s="6"/>
@@ -14276,7 +14267,7 @@
         <v>63.5</v>
       </c>
       <c r="I408" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J408" s="4"/>
       <c r="K408" s="6"/>
@@ -14307,7 +14298,7 @@
         <v>59.6</v>
       </c>
       <c r="I409" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J409" s="4"/>
       <c r="K409" s="6"/>
@@ -14338,7 +14329,7 @@
         <v>28.5</v>
       </c>
       <c r="I410" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J410" s="4" t="s">
         <v>218</v>
@@ -14371,7 +14362,7 @@
         <v>10</v>
       </c>
       <c r="I411" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J411" s="4" t="s">
         <v>217</v>
@@ -14404,7 +14395,7 @@
         <v>10</v>
       </c>
       <c r="I412" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J412" s="4"/>
       <c r="K412" s="6"/>
@@ -14420,7 +14411,7 @@
         <v>209</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E413" s="4" t="s">
         <v>33</v>
@@ -14435,7 +14426,7 @@
         <v>45.6</v>
       </c>
       <c r="I413" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J413" s="4" t="s">
         <v>215</v>
@@ -14468,7 +14459,7 @@
         <v>10</v>
       </c>
       <c r="I414" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J414" s="4"/>
       <c r="K414" s="6"/>
@@ -14499,7 +14490,7 @@
         <v>10</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J415" s="4"/>
       <c r="K415" s="6"/>
@@ -14530,7 +14521,7 @@
         <v>10</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J416" s="4" t="s">
         <v>214</v>
@@ -14563,7 +14554,7 @@
         <v>10</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J417" s="4" t="s">
         <v>213</v>
@@ -14581,7 +14572,7 @@
         <v>209</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E418" s="4" t="s">
         <v>33</v>
@@ -14596,7 +14587,7 @@
         <v>39</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J418" s="4" t="s">
         <v>216</v>
@@ -14629,7 +14620,7 @@
         <v>10</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J419" s="4"/>
       <c r="K419" s="6"/>
@@ -14660,7 +14651,7 @@
         <v>10</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J420" s="4"/>
       <c r="K420" s="6"/>
@@ -14691,7 +14682,7 @@
         <v>10</v>
       </c>
       <c r="I421" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J421" s="4"/>
       <c r="K421" s="6"/>
@@ -14722,7 +14713,7 @@
         <v>10</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J422" s="4"/>
       <c r="K422" s="6"/>
@@ -14753,7 +14744,7 @@
         <v>10</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J423" s="4"/>
       <c r="K423" s="6"/>
@@ -14784,7 +14775,7 @@
         <v>10</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J424" s="4"/>
       <c r="K424" s="6"/>
@@ -14815,7 +14806,7 @@
         <v>61.5</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J425" s="4"/>
       <c r="K425" s="6"/>
@@ -14846,7 +14837,7 @@
         <v>58.1</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J426" s="4"/>
       <c r="K426" s="6"/>
@@ -14877,7 +14868,7 @@
         <v>27.3</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J427" s="4"/>
       <c r="K427" s="6"/>
@@ -14908,7 +14899,7 @@
         <v>66.099999999999994</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J428" s="4"/>
       <c r="K428" s="6"/>
@@ -14939,7 +14930,7 @@
         <v>10</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J429" s="4"/>
       <c r="K429" s="6"/>
@@ -14970,7 +14961,7 @@
         <v>10</v>
       </c>
       <c r="I430" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J430" s="4"/>
       <c r="K430" s="6"/>
@@ -15001,7 +14992,7 @@
         <v>10</v>
       </c>
       <c r="I431" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J431" s="4"/>
       <c r="K431" s="6"/>
@@ -15032,7 +15023,7 @@
         <v>10</v>
       </c>
       <c r="I432" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J432" s="4" t="s">
         <v>76</v>
@@ -15065,7 +15056,7 @@
         <v>10</v>
       </c>
       <c r="I433" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J433" s="4"/>
       <c r="K433" s="6"/>
@@ -15096,7 +15087,7 @@
         <v>10</v>
       </c>
       <c r="I434" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J434" s="4"/>
       <c r="K434" s="6"/>
@@ -15127,7 +15118,7 @@
         <v>10</v>
       </c>
       <c r="I435" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J435" s="4"/>
       <c r="K435" s="6"/>
@@ -15158,7 +15149,7 @@
         <v>18.2</v>
       </c>
       <c r="I436" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J436" s="4" t="s">
         <v>78</v>
@@ -15191,7 +15182,7 @@
         <v>15</v>
       </c>
       <c r="I437" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J437" s="4" t="s">
         <v>79</v>
@@ -15224,7 +15215,7 @@
         <v>56.9</v>
       </c>
       <c r="I438" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J438" s="4"/>
       <c r="K438" s="6"/>
@@ -15255,7 +15246,7 @@
         <v>63.6</v>
       </c>
       <c r="I439" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J439" s="4"/>
       <c r="K439" s="6"/>
@@ -15286,7 +15277,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="I440" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J440" s="4" t="s">
         <v>80</v>
@@ -15319,7 +15310,7 @@
         <v>79</v>
       </c>
       <c r="I441" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J441" s="4"/>
       <c r="K441" s="6"/>
@@ -15350,7 +15341,7 @@
         <v>52.6</v>
       </c>
       <c r="I442" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J442" s="4" t="s">
         <v>81</v>
@@ -15383,7 +15374,7 @@
         <v>10</v>
       </c>
       <c r="I443" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J443" s="4" t="s">
         <v>82</v>
@@ -15401,7 +15392,7 @@
         <v>209</v>
       </c>
       <c r="D444" s="4">
-        <v>4171</v>
+        <v>4177</v>
       </c>
       <c r="E444" s="4" t="s">
         <v>9</v>
@@ -15416,7 +15407,7 @@
         <v>10</v>
       </c>
       <c r="I444" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J444" s="4" t="s">
         <v>83</v>
@@ -15449,7 +15440,7 @@
         <v>10</v>
       </c>
       <c r="I445" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J445" s="4" t="s">
         <v>83</v>
@@ -15482,7 +15473,7 @@
         <v>10</v>
       </c>
       <c r="I446" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J446" s="4" t="s">
         <v>83</v>
@@ -15515,7 +15506,7 @@
         <v>10</v>
       </c>
       <c r="I447" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J447" s="4"/>
       <c r="K447" s="6"/>
@@ -15546,7 +15537,7 @@
         <v>10</v>
       </c>
       <c r="I448" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J448" s="4"/>
       <c r="K448" s="6"/>
@@ -15577,7 +15568,7 @@
         <v>61.1</v>
       </c>
       <c r="I449" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J449" s="4"/>
       <c r="K449" s="6"/>
@@ -15608,7 +15599,7 @@
         <v>31.2</v>
       </c>
       <c r="I450" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J450" s="4"/>
       <c r="K450" s="6"/>
@@ -15639,7 +15630,7 @@
         <v>53.3</v>
       </c>
       <c r="I451" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J451" s="4"/>
       <c r="K451" s="6"/>
@@ -15670,7 +15661,7 @@
         <v>44.5</v>
       </c>
       <c r="I452" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J452" s="4"/>
       <c r="K452" s="6"/>
@@ -15701,7 +15692,7 @@
         <v>43.6</v>
       </c>
       <c r="I453" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J453" s="4"/>
       <c r="K453" s="6"/>
@@ -15732,7 +15723,7 @@
         <v>42.3</v>
       </c>
       <c r="I454" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J454" s="4"/>
       <c r="K454" s="6"/>
@@ -15763,7 +15754,7 @@
         <v>10</v>
       </c>
       <c r="I455" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J455" s="4"/>
       <c r="K455" s="6"/>
@@ -15794,7 +15785,7 @@
         <v>40.4</v>
       </c>
       <c r="I456" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J456" s="4"/>
       <c r="K456" s="6"/>
@@ -15825,7 +15816,7 @@
         <v>53.5</v>
       </c>
       <c r="I457" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J457" s="4"/>
       <c r="K457" s="6"/>
@@ -15856,7 +15847,7 @@
         <v>52.8</v>
       </c>
       <c r="I458" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J458" s="4"/>
       <c r="K458" s="6"/>
@@ -15887,7 +15878,7 @@
         <v>10</v>
       </c>
       <c r="I459" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J459" s="4" t="s">
         <v>86</v>
@@ -15920,7 +15911,7 @@
         <v>10</v>
       </c>
       <c r="I460" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J460" s="4" t="s">
         <v>87</v>
@@ -15953,7 +15944,7 @@
         <v>10</v>
       </c>
       <c r="I461" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J461" s="4"/>
       <c r="K461" s="6"/>
@@ -15984,7 +15975,7 @@
         <v>10</v>
       </c>
       <c r="I462" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J462" s="4"/>
       <c r="K462" s="6"/>
@@ -16015,7 +16006,7 @@
         <v>10</v>
       </c>
       <c r="I463" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J463" s="4"/>
       <c r="K463" s="6"/>
@@ -16046,7 +16037,7 @@
         <v>20.5</v>
       </c>
       <c r="I464" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J464" s="4"/>
       <c r="K464" s="6"/>
@@ -16077,7 +16068,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="I465" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J465" s="4"/>
       <c r="K465" s="6"/>
@@ -16108,7 +16099,7 @@
         <v>64.3</v>
       </c>
       <c r="I466" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J466" s="4" t="s">
         <v>88</v>
@@ -16141,7 +16132,7 @@
         <v>53.5</v>
       </c>
       <c r="I467" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J467" s="4" t="s">
         <v>89</v>
@@ -16174,7 +16165,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="I468" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J468" s="4" t="s">
         <v>90</v>
@@ -16207,7 +16198,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="I469" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J469" s="4" t="s">
         <v>91</v>
@@ -16240,7 +16231,7 @@
         <v>24.2</v>
       </c>
       <c r="I470" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J470" s="4" t="s">
         <v>91</v>
@@ -16273,7 +16264,7 @@
         <v>15.9</v>
       </c>
       <c r="I471" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J471" s="4" t="s">
         <v>92</v>
@@ -16306,7 +16297,7 @@
         <v>58.8</v>
       </c>
       <c r="I472" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J472" s="4" t="s">
         <v>93</v>
@@ -16339,7 +16330,7 @@
         <v>25.9</v>
       </c>
       <c r="I473" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J473" s="4"/>
       <c r="K473" s="6"/>
@@ -16370,7 +16361,7 @@
         <v>10</v>
       </c>
       <c r="I474" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J474" s="4"/>
       <c r="K474" s="6"/>
@@ -16401,7 +16392,7 @@
         <v>58.2</v>
       </c>
       <c r="I475" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J475" s="4" t="s">
         <v>94</v>
@@ -16434,7 +16425,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="I476" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J476" s="4"/>
       <c r="K476" s="6"/>
@@ -16465,7 +16456,7 @@
         <v>10</v>
       </c>
       <c r="I477" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J477" s="4"/>
       <c r="K477" s="6"/>
@@ -16496,7 +16487,7 @@
         <v>46.1</v>
       </c>
       <c r="I478" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J478" s="4"/>
       <c r="K478" s="6"/>
